--- a/raw_data/Batch_128_Main.xlsx
+++ b/raw_data/Batch_128_Main.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView windowWidth="10590" windowHeight="3045"/>
-  </bookViews>
   <sheets>
-    <sheet name="Timetable" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Timetable" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="558">
   <si>
     <t>B.TECH. I Yr(II SEMESTER) TIMETABLE EVEN SEMESTER 2026, JIIT-128</t>
   </si>
@@ -68,20 +64,19 @@
     <t>PF3 (15B17PH271) - 041/SKA</t>
   </si>
   <si>
-    <t>PF17  (15B17PH271)- 256C/AMV</t>
-  </si>
-  <si>
-    <t>PF3 (18B15GE112)/WS04/SUM
-PE1E2E3(15B17CI271) -HMB/SAP/NMD/JATIN</t>
+    <t>PF17  (15B17PH271)- 256C/PKC</t>
+  </si>
+  <si>
+    <t>PE1E2E3(15B17CI271) -CL1/HMB/SAP/SHJ/JATIN</t>
   </si>
   <si>
     <t>PF4  (15B17PH271)-256C/VM</t>
   </si>
   <si>
-    <t>PF18  (15B17PH271)-41/PKC</t>
-  </si>
-  <si>
-    <t>LH3H4(15B11MA211)-3023/NEA/ATH</t>
+    <t>PF18  (15B17PH271)-41//SKA</t>
+  </si>
+  <si>
+    <t>LH3H4(15B11MA211)-3023/PKR/ATH</t>
   </si>
   <si>
     <t>PH3  (15B17PH271) - 027A/ADV</t>
@@ -93,15 +88,15 @@
     <t>PF1 (18B15GE112)/WS04/PRJ</t>
   </si>
   <si>
+    <t>TF8(24B11HS111) -3028/DEV</t>
+  </si>
+  <si>
     <t>LF13F14(15B11CI211) -3045/GAH</t>
   </si>
   <si>
     <t>PH4  (15B17PH271) - 256C/URS</t>
   </si>
   <si>
-    <t>TF10(24B11HS111) -121/PRS</t>
-  </si>
-  <si>
     <t>PF5(24B16HS111) -240/EKS</t>
   </si>
   <si>
@@ -129,7 +124,7 @@
     <t>LF24F25(15B11PH211)-3028/NAK</t>
   </si>
   <si>
-    <t>LF13F14(15B11PH211)-3045/KAS</t>
+    <t>LF13F14(15B11PH211)-3045/NAK</t>
   </si>
   <si>
     <t>LE1E2(15B11PH211)-118/SHALU</t>
@@ -144,7 +139,7 @@
     <t>LF5F6(15B11CI211) -217/ADS</t>
   </si>
   <si>
-    <t>PF7F8F9(15B17CI271) -CL1/SGU/ARJ/JATIN</t>
+    <t>PF7F8F9(15B17CI271) -CL1/SGU/ARJ</t>
   </si>
   <si>
     <t>TF3(24B11HS111) -116/SHV</t>
@@ -162,10 +157,16 @@
     <t>PF17(15B17CI271) -CYBER SECURITY/HIB/SAMARTH JAIN</t>
   </si>
   <si>
-    <t>TF21(15B11PH211)-116/VM</t>
+    <t>LF7F8(15B11CI211) -217/MKS</t>
+  </si>
+  <si>
+    <t>TF21(15B11PH211)-116/KAS</t>
   </si>
   <si>
     <t>LF24F25(15B11MA211)-3028/NEA</t>
+  </si>
+  <si>
+    <t>TF10(24B11HS111) -3028/DEV</t>
   </si>
   <si>
     <t>TF13(15B11CI211) 
@@ -178,13 +179,10 @@
     <t>LE3E4(15B11PH211)-3092/URS</t>
   </si>
   <si>
-    <t>LF7F8(15B11CI211) -217/MKS</t>
+    <t>LF24F25(15B11CI211) -3028/SQM</t>
   </si>
   <si>
     <t>LE3E4(15B11CI211) -3028/ANK</t>
-  </si>
-  <si>
-    <t>PF10F11F12(15B17CI271) -CL1/SGU/SHJ/ARJ</t>
   </si>
   <si>
     <t>TF14(15B11CI211) -127
@@ -197,10 +195,10 @@
     <t>LF13F14(15B11MA211)-3045/PKR</t>
   </si>
   <si>
-    <t>LF24F25(15B11CI211) -3028/SQM</t>
-  </si>
-  <si>
-    <t>TF25(15B11MA211) -126/ASP</t>
+    <t>LF5F6(15B11CI211) -3084/ADS</t>
+  </si>
+  <si>
+    <t>TF25(15B11MA211) -126/ATH</t>
   </si>
   <si>
     <t>TF9(15B11PH211)-121/ANK</t>
@@ -209,23 +207,26 @@
     <t>TF9(15B11MA211) -121/ATH</t>
   </si>
   <si>
+    <t>TH2(15B11MA211)-3084/LKK</t>
+  </si>
+  <si>
     <t>TE1(24B11HS111) -116/SHV</t>
   </si>
   <si>
     <t>LF11F12(15B11PH211)-3023/SKH</t>
   </si>
   <si>
-    <t>LF5F6(15B11CI211) -3084/ADS</t>
+    <t>LE1E2F4(24B11HS111) -SR05/PRK</t>
   </si>
   <si>
     <t>TF24(15B11CI211) -127
 /SQM/SAMARTH</t>
   </si>
   <si>
-    <t>TF13(15B11PH211) -126/KAS</t>
-  </si>
-  <si>
-    <t>TF13(15B11MA211) -116/ASP</t>
+    <t>TF13(15B11PH211) -126/VM</t>
+  </si>
+  <si>
+    <t>TF13(15B11MA211) -116/KKS</t>
   </si>
   <si>
     <t>TH3(15B11CI211) 
@@ -238,7 +239,7 @@
     <t>TF22(15B11PH211)-116/SKA</t>
   </si>
   <si>
-    <t>LE1E2(24B11HS111) -SR05/NIC</t>
+    <t>LH1H2(24B11HS111) -3084/NIC</t>
   </si>
   <si>
     <t>TF14(15B11MA211) -126//LKK</t>
@@ -250,9 +251,21 @@
     <t>LE1E2(15B11CI211) -SR05/NMD</t>
   </si>
   <si>
+    <t>PF3 (18B15GE112)/WS04/SUM</t>
+  </si>
+  <si>
+    <t>LH1H2(15B11MA211)-3084/KKS</t>
+  </si>
+  <si>
     <t>TF22(15B11MA211) -126//UMK</t>
   </si>
   <si>
+    <t>PF10F11F12(15B17CI271) -CL1/SQM/NMD/ARJ/RSK</t>
+  </si>
+  <si>
+    <t>LF11F12(15B11CI211) 3023/ARJ</t>
+  </si>
+  <si>
     <t>TUESDAY</t>
   </si>
   <si>
@@ -265,7 +278,7 @@
     <t>TF8(15B11PH211)-116/SHALU</t>
   </si>
   <si>
-    <t>LF13F14(15B11PH211)-3023/KAS</t>
+    <t>LF13F14(15B11PH211)-3023/NAK</t>
   </si>
   <si>
     <t>LF13F14(15B11MA211)-3023/PKR</t>
@@ -274,6 +287,9 @@
     <t>LF5F6(24B11HS111) -3084/ADV</t>
   </si>
   <si>
+    <t>TF8(15B11MA211) -113/PKR</t>
+  </si>
+  <si>
     <t>PF6 (18B15GE112)/WS05/SUM</t>
   </si>
   <si>
@@ -289,19 +305,19 @@
     <t>PF17 (18B15GE112)/WS06/PRJ</t>
   </si>
   <si>
-    <t>TF17(24B11HS111) -121/PRS</t>
+    <t>TF17(24B11HS111) -121/NIC</t>
   </si>
   <si>
     <t>PF1  (15B17PH271) -027A/ AK</t>
   </si>
   <si>
-    <t>PE1  (15B17PH271) - 41/BHT</t>
+    <t>PE1  (15B17PH271) - 41/SKA</t>
   </si>
   <si>
     <t>LF11F12(24B11HS111) -3045/JRD</t>
   </si>
   <si>
-    <t>PF9  (15B17PH271) -256C/ SHALU</t>
+    <t>PF9  (15B17PH271) -41/ SHALU</t>
   </si>
   <si>
     <t>TH3(15B11MA211) -126/ASP</t>
@@ -310,7 +326,7 @@
     <t>PF2  (15B17PH271) - 256C/SKH</t>
   </si>
   <si>
-    <t>PE2  (15B17PH271) -256C/ NAK</t>
+    <t>PE2  (15B17PH271) -256C/ BHT</t>
   </si>
   <si>
     <t>LF5F6(15B11PH211)-3084/ADV</t>
@@ -352,7 +368,7 @@
     <t>PH2(24B16HS111) -246/CHANDERSHEKHAR</t>
   </si>
   <si>
-    <t>LF21F22(15B11PH211)-3028/NAK</t>
+    <t>LF21F22(15B11PH211)-3028/ADV</t>
   </si>
   <si>
     <t>LF21F22(15B11MA211)-3028/PKR</t>
@@ -361,7 +377,7 @@
     <t>LF11F12(15B11PH211)-3084/SKH</t>
   </si>
   <si>
-    <t>LH3H4(15B11MA211)-3028/NEA/ATH</t>
+    <t>LH3H4(15B11MA211)-3028/PKR/ATH</t>
   </si>
   <si>
     <t>LF5F6(15B11MA211)-3084/UMK</t>
@@ -374,9 +390,6 @@
 /ADS/ZUBAIR</t>
   </si>
   <si>
-    <t>LF9F10(24B11HS111) -3045/AMS</t>
-  </si>
-  <si>
     <t>LF11F12(15B11MA211)-3084/UMK</t>
   </si>
   <si>
@@ -396,9 +409,6 @@
 /ADS/AVINASH</t>
   </si>
   <si>
-    <t>TF8(15B11MA211) -116/PKR</t>
-  </si>
-  <si>
     <t>LF9F10(15B11MA211)-3045/ASP</t>
   </si>
   <si>
@@ -408,7 +418,7 @@
     <t>TE4(24B11HS111) -116/AKS</t>
   </si>
   <si>
-    <t>LE1E2(24B11HS111) -228/PRK</t>
+    <t>LE1E2F4(24B11HS111) -153/PRK</t>
   </si>
   <si>
     <t>LH3H4(15B11CI211) -3028/DVG</t>
@@ -453,8 +463,7 @@
     <t>LE1E2(15B11CI211) -228/NMD</t>
   </si>
   <si>
-    <t>TE1(15B11CI211)-3045
-/BAIBHAV</t>
+    <t>TE1(15B11CI211)-3045/BAIBHAV</t>
   </si>
   <si>
     <t>TF8(15B11CI211) -3092
@@ -464,7 +473,7 @@
     <t>TE2(15B11PH211)-121/SHALU</t>
   </si>
   <si>
-    <t>TF4(24B11HS111) -3092NIC</t>
+    <t>TF4(24B11HS111) -3092/DEV</t>
   </si>
   <si>
     <t>TF4(15B11CI211) -127/SAP/AVINASH</t>
@@ -479,6 +488,12 @@
     <t>TE2(15B11CI211) -3083/JATIN</t>
   </si>
   <si>
+    <t>LF7F8(15B11MA211)-3092/PRITEE</t>
+  </si>
+  <si>
+    <t>TH3(24B11HS111) -CR54/PRS</t>
+  </si>
+  <si>
     <t>TF25(15B11CI211) -3092/NMD</t>
   </si>
   <si>
@@ -512,50 +527,50 @@
     <t>LF7F8(24B11HS111) -3028/URS</t>
   </si>
   <si>
-    <t>LF17F18(15B11PH211)-3045/BHT</t>
+    <t>LF17F18(15B11MA211)-3045/NEA</t>
   </si>
   <si>
     <t>LF7F8(15B11PH211)-3028/URS</t>
   </si>
   <si>
-    <t>TE3(24B11HS111) -116/PRS</t>
-  </si>
-  <si>
-    <t>PF7  (15B17PH271) -41/ SKA</t>
-  </si>
-  <si>
-    <t>PH1  (15B17PH271) -027A/ PKC</t>
+    <t>TE3(24B11HS111) -116/AKS</t>
+  </si>
+  <si>
+    <t>PF7  (15B17PH271) -41/ BHT</t>
+  </si>
+  <si>
+    <t>PH1  (15B17PH271) -027A/KAS</t>
   </si>
   <si>
     <t>PF12 (18B15GE112)/WS05/RAK</t>
   </si>
   <si>
-    <t>PF8  (15B17PH271) -256C/ AV</t>
-  </si>
-  <si>
-    <t>PH2  (15B17PH271) -41/ ADV</t>
+    <t>PF8  (15B17PH271) -256C/URS/VM</t>
+  </si>
+  <si>
+    <t>PH2  (15B17PH271) -41/PKC</t>
   </si>
   <si>
     <t>LF5F6(15B11CI211) -3045/ADS</t>
   </si>
   <si>
-    <t>TH3(15B11CI211) 3023/DVG/JATIN</t>
+    <t>TH4(15B11CI211) 3023/DVG/JATIN</t>
   </si>
   <si>
     <t>TF11(15B11CI211) 
 3023/ARJ/KAKUL</t>
   </si>
   <si>
-    <t>PF4F5F6(15B17CI271) -CL1//SAP/SGU/ARJ/BAIBHAV</t>
+    <t>PF4F5F6(15B17CI271) -CL1//SAP/SGU//BAIBHAV</t>
   </si>
   <si>
     <t>LF17F18(15B11CI211) -226/RKA</t>
   </si>
   <si>
-    <t>LF17F18(15B11MA211)-3084/NEA</t>
-  </si>
-  <si>
-    <t>PE3  (15B17PH271) -41/SHALU</t>
+    <t>LF17F18(15B11PH211)-3084/BHT</t>
+  </si>
+  <si>
+    <t>PF14(15B17PH271) --256C/ANK/AMV</t>
   </si>
   <si>
     <t>TF12(15B11CI211) -3028
@@ -568,9 +583,6 @@
     <t>PF11 (18B15GE112)/WS04/HAB</t>
   </si>
   <si>
-    <t>TH2(15B11MA211)-121/LKK</t>
-  </si>
-  <si>
     <t>LF11F12(15B11PH211)-3028/SKH
 LF11F12(15B11CI211) -3028/ARJ</t>
   </si>
@@ -600,7 +612,7 @@
     <t>PF2(24B16HS111) -246/SANJAY</t>
   </si>
   <si>
-    <t>TF21(24B11HS111) -116/PRS</t>
+    <t>TF21(24B11HS111) -116//DEV</t>
   </si>
   <si>
     <t>PH4(24B16HS111) -246/HIMANSHI</t>
@@ -613,15 +625,9 @@
 LF21F22(15B11CI211) -3045/JYR</t>
   </si>
   <si>
-    <t>TF22(24B11HS111) -121/SHV</t>
-  </si>
-  <si>
     <t>TF24(15B11PH211)-116/NAK</t>
   </si>
   <si>
-    <t>LF7F8(15B11MA211)-3028/SHP</t>
-  </si>
-  <si>
     <t>TF5(15B11MA211) -116/AMB</t>
   </si>
   <si>
@@ -634,13 +640,13 @@
     <t>TE1(15B11PH211)-121/SHALU</t>
   </si>
   <si>
-    <t>TF6(24B11HS111) -116/PRS</t>
+    <t>TF6(24B11HS111) -121/PRS</t>
   </si>
   <si>
     <t>LH1H2(15B11PH211)-3084/SKA</t>
   </si>
   <si>
-    <t>LH3H4(15B11MA211)-3092/NEA/ATH</t>
+    <t>LH3H4(15B11MA211)-3092/PKR/ATH</t>
   </si>
   <si>
     <t>LE1E2(15B11CI211) -3023/NMD</t>
@@ -652,13 +658,16 @@
     <t>TE4(15B11PH211)-116/KAS</t>
   </si>
   <si>
+    <t>TF5(24B11HS111) -121/SHV</t>
+  </si>
+  <si>
     <t>TE2(15B11MA211) -127/AMB</t>
   </si>
   <si>
     <t>LH3H4(15B11CI211) -3092/DVG</t>
   </si>
   <si>
-    <t>LH1H2(15B11CI211) -3092/HMB</t>
+    <t>LH1H2(15B11CI211) -3084/HMB</t>
   </si>
   <si>
     <t>PH2 (18B15GE112)/WS04/SUM</t>
@@ -676,10 +685,10 @@
     <t>LE1E2(15B11MA211)-3084/PKS</t>
   </si>
   <si>
+    <t>LF17F18(15B11PH211)-3023/BHT</t>
+  </si>
+  <si>
     <t>LF17F18(15B11MA211)-3023/NEA</t>
-  </si>
-  <si>
-    <t>LF17F18(15B11PH211)-3023/BHT</t>
   </si>
   <si>
     <t>LF1F2(24B11HS111) -3092/NEA</t>
@@ -698,9 +707,6 @@
     <t>PE2 (18B15GE112)/WS05/PRJ</t>
   </si>
   <si>
-    <t>TF5(24B11HS111) -116/SHV</t>
-  </si>
-  <si>
     <t>PH3 (18B15GE112)/WS06/HAB</t>
   </si>
   <si>
@@ -710,10 +716,10 @@
     <t>TF6(15B11PH211)-121/PKC</t>
   </si>
   <si>
-    <t>PF21F22(15B17CI271) -CL1//MKS/SQM/BAIBHAV</t>
-  </si>
-  <si>
-    <t>PE3  (15B17PH271) - 41/SHALU</t>
+    <t>PF21F22(15B17CI271) -CL1//MKS/SGU/BAIBHAV/RSK</t>
+  </si>
+  <si>
+    <t>PE3  (15B17PH271) - 256C/SHALU</t>
   </si>
   <si>
     <t>LF3F4(15B11PH211)-226/PKC</t>
@@ -722,19 +728,13 @@
     <t>PF5  (15B17PH271) -256C/ ANK</t>
   </si>
   <si>
-    <t>TF8(24B11HS111) -126/PRS</t>
-  </si>
-  <si>
-    <t>PF12  (15B17PH271) -256C/ BHT</t>
+    <t>PF12  (15B17PH271) -41/NAK</t>
   </si>
   <si>
     <t>PE4  (15B17PH271) - 027A/URS</t>
   </si>
   <si>
-    <t>PF6  (15B17PH271) -027A/ SKH</t>
-  </si>
-  <si>
-    <t>TF18(24B11HS111) -127/DEV</t>
+    <t>PF6  (15B17PH271) -027A/ KAS</t>
   </si>
   <si>
     <t>PF13 (18B15GE112)/WS04/PSH</t>
@@ -743,7 +743,7 @@
     <t>PE1 (18B15GE112)/WS04/NIK</t>
   </si>
   <si>
-    <t>TF7(24B11HS111) -116/NIC</t>
+    <t>TF7(24B11HS111) -244/AKS</t>
   </si>
   <si>
     <t>PF7(24B16HS111) -240/SANJAY</t>
@@ -758,7 +758,7 @@
     <t>LE3E4(15B11CI211) -217/ANK</t>
   </si>
   <si>
-    <t>TE1(15B11MA211) -118/AMB</t>
+    <t>TE1(15B11MA211) -244B/AMB</t>
   </si>
   <si>
     <t>PF8(24B16HS111) -246/EKS</t>
@@ -783,17 +783,17 @@
     <t>LF5F6(15B11MA211)-3045/UMK</t>
   </si>
   <si>
-    <t>TF5(15B11PH211)-121/PKC</t>
-  </si>
-  <si>
-    <t>LF7F8(15B11MA211)-3045/SHP</t>
+    <t>TF5(15B11PH211)-121/AMV</t>
+  </si>
+  <si>
+    <t>LF7F8(15B11MA211)-3045/PRITEE</t>
   </si>
   <si>
     <t>TF24(24B11HS111) -116/NIC</t>
   </si>
   <si>
     <t>TF18(15B11CI211) -3028
-/RKA/SAMARTH</t>
+/RKA/DHRUV</t>
   </si>
   <si>
     <t>LH1H2(15B11PH211)-3028/SKA</t>
@@ -802,25 +802,19 @@
     <t>LH1H2(15B11MA211)-3028/KKS</t>
   </si>
   <si>
-    <t>TF3(15B11PH211)-116/AMV</t>
+    <t>TF3(15B11PH211)-116/PKC</t>
   </si>
   <si>
     <t>LF1F2(15B11MA211)-3092/SHP</t>
   </si>
   <si>
     <t>LF1F2(15B11PH211)-3092/VM</t>
-  </si>
-  <si>
-    <t>TF25(24B11HS111) -226/SHV</t>
   </si>
   <si>
     <t>TE3(15B11CI211) 
 217//ANK/BAIBHAV</t>
   </si>
   <si>
-    <t>LE1E2(24B11HS111) -3084/PRK</t>
-  </si>
-  <si>
     <t>LF3F4(15B11CI211) -3023/SAP</t>
   </si>
   <si>
@@ -833,10 +827,6 @@
     <t>LF17F18(15B11CI211) -3023/RKA</t>
   </si>
   <si>
-    <t>TE4(15B11CI211) -226
-/ANK/JATIN</t>
-  </si>
-  <si>
     <t>TF1(15B11PH211)-116/VM</t>
   </si>
   <si>
@@ -849,10 +839,7 @@
     <t>LF21F22(15B11CI211) -3028/JYR</t>
   </si>
   <si>
-    <t>LE1E2(24B11HS111) -3045/NIC</t>
-  </si>
-  <si>
-    <t>TF10(15B11PH211)-121/ANK</t>
+    <t>TF10(15B11MA211)-121/NEA</t>
   </si>
   <si>
     <t>TF2(15B11PH211)-121/VM</t>
@@ -882,34 +869,40 @@
     <t>TF24(15B11MA211) -126/UMK</t>
   </si>
   <si>
+    <t>LF7F8(15B11MA211)-3093PRITEE</t>
+  </si>
+  <si>
     <t>TF6(15B11MA211) -127/AMB</t>
   </si>
   <si>
-    <t>TF11(24B11HS111) --126/NIC</t>
+    <t>TF11(24B11HS111) --126/PRS</t>
+  </si>
+  <si>
+    <t>PF11  (15B17PH271) -256CSKH</t>
+  </si>
+  <si>
+    <t>TF22(24B11HS111) -3098/SHV</t>
   </si>
   <si>
     <t>TF12(15B11MA211) -116/ATH</t>
   </si>
   <si>
+    <t>TF18(24B11HS111) -127/DEV</t>
+  </si>
+  <si>
     <t>FRIDAY</t>
   </si>
   <si>
-    <t>LH3H4(24B11HS111) -226/PRS</t>
-  </si>
-  <si>
-    <t>LF24F25(24B11HS111) -3023/RSK</t>
-  </si>
-  <si>
-    <t>LF3F4(15B11MA211)-3028/ASP</t>
+    <t>LF24F25(15B11MA211) -3023/NEA  LF3F4(15B11MA211)-3028/ASP</t>
   </si>
   <si>
     <t>LF24F25(15B11PH211)-3023/NAK</t>
   </si>
   <si>
-    <t>LF3F4(24B11HS111) -3028/NFHSS1</t>
-  </si>
-  <si>
-    <t>LF21F22(15B11PH211)-3023/NAK</t>
+    <t>LH3H4F3(15B11HS11) -SR05/PRS</t>
+  </si>
+  <si>
+    <t>LF21F22(15B11PH211)-3023/ADV</t>
   </si>
   <si>
     <t>LF21F22(24B11HS111) -3023/RSK</t>
@@ -924,7 +917,7 @@
     <t>PH1 (18B15GE112)/WS06/PSH</t>
   </si>
   <si>
-    <t>TH1(24B11HS111) -116/DEV</t>
+    <t>LF13F14(15B11CI211) -3028/GAH</t>
   </si>
   <si>
     <t>PE3 (18B15GE112)/WS04/PRJ</t>
@@ -945,10 +938,10 @@
     <t>LF21F22(15B11MA211)-3023/PKR</t>
   </si>
   <si>
-    <t>PF24  (15B17PH271)- 027A/KAS</t>
-  </si>
-  <si>
-    <t>PF22  (15B17PH271) -027A/ KAS</t>
+    <t>PF24  (15B17PH271)- 027A/SKA</t>
+  </si>
+  <si>
+    <t>PF22  (15B17PH271) -027A/PKC</t>
   </si>
   <si>
     <t>LF3F4(15B11PH211)-3028/PKC</t>
@@ -963,25 +956,16 @@
     <t>PF9(24B16HS111) -240/CHANDERSHEKHAR</t>
   </si>
   <si>
-    <t>TH3(24B11HS111) -116/DEV</t>
-  </si>
-  <si>
     <t>TF1(24B11HS111) -121/SHV</t>
   </si>
   <si>
-    <t>LH3H4(15B11PH211)-3045/SKH</t>
-  </si>
-  <si>
-    <t>LH3H4(24B11HS111) -3045/PRS</t>
-  </si>
-  <si>
     <t>PF10(24B16HS111) -246/HIMANSNHI</t>
   </si>
   <si>
     <t>TH4(24B11HS111) -121/SHV</t>
   </si>
   <si>
-    <t>TH2(15B11CI211) - 3045/VAIBHAV</t>
+    <t>TH2(15B11CI211) - 3045/AVINASH</t>
   </si>
   <si>
     <t>LE3E4(15B11MA211)-3084/AMB</t>
@@ -990,23 +974,19 @@
     <t>LE3E4(15B11PH211)-3084/URS</t>
   </si>
   <si>
-    <t>LH3H4(24B11HS111) -3045/PRS
-LH3H4(15B11CI211) -3045/DVG</t>
-  </si>
-  <si>
     <t>LF1F2(15B11CI211) -3084/SHJ</t>
   </si>
   <si>
-    <t>LF13F14(15B11PH211)-3028/KAS</t>
-  </si>
-  <si>
-    <t>LF13F14(15B11CI211) -3028/GAH</t>
+    <t>TE4(15B11CI211) -127/ANK/JATIN</t>
+  </si>
+  <si>
+    <t>LF13F14(15B11PH211)-3028/NAK</t>
   </si>
   <si>
     <t>PH1H2H3(15B17CI271) -CL1/HIB/SHJ/GAH/SAMARTH</t>
   </si>
   <si>
-    <t>TF10(15B11MA211) -127/NEA</t>
+    <t>TF10(15B11PH211) -127/ANK</t>
   </si>
   <si>
     <t>PF11(24B16HS111) -240/ALOK</t>
@@ -1018,19 +998,20 @@
     <t>LF1F2(15B11MA211)-3084/SHP</t>
   </si>
   <si>
-    <t>PF13  (15B17PH271) -027A/ URS</t>
+    <t>PF13  (15B17PH271) -027A/ AMV</t>
   </si>
   <si>
     <t>LF24F25(15B11CI211) -226/SQM</t>
   </si>
   <si>
-    <t>TF1(15B11CI211) -116/SSJ/ZUBAIR</t>
+    <t>TF1(15B11CI211) -3092
+/SSJ/ZUBAIR</t>
   </si>
   <si>
     <t>LF13F14(24B11HS111) -3092/ARM</t>
   </si>
   <si>
-    <t>LF24F25(15B11MA211)-3023/NEA</t>
+    <t>LF24F25(24B11HS111)-3023/RSK</t>
   </si>
   <si>
     <t>TF11(15B11MA211) -126/PKS</t>
@@ -1049,7 +1030,13 @@
     <t>LF13F14(15B11MA211)-3092/PKR</t>
   </si>
   <si>
-    <t>TF22(15B11CI211) 3092//ADS</t>
+    <t>TF22(15B11CI211) 3092//AKB</t>
+  </si>
+  <si>
+    <t>LH3H4(15B11CI211) -SR05/DVG</t>
+  </si>
+  <si>
+    <t>PF14(24B16HS111) -246/HIMANSHI</t>
   </si>
   <si>
     <t>SATURDAY</t>
@@ -1067,7 +1054,7 @@
     <t>LF7F8(24B11HS111) -3045/URS</t>
   </si>
   <si>
-    <t>PF25 (18B15GE112)/WS06/SUM</t>
+    <t>PF25 (18B15GE112)/WS06/RAK</t>
   </si>
   <si>
     <t>LF1F2(15B11CI211) -3028/SHJ</t>
@@ -1076,13 +1063,7 @@
     <t>PF13(24B16HS111) -240/MEENAKSHI</t>
   </si>
   <si>
-    <t>PF11  (15B17PH271) -41/SKH</t>
-  </si>
-  <si>
-    <t>PF14(24B16HS111) -246/HIMANSHI</t>
-  </si>
-  <si>
-    <t>PH4 (18B15GE112)/WS05/RAK</t>
+    <t>PH4 (18B15GE112)/WS05/SUM</t>
   </si>
   <si>
     <t>LF9F10(15B11CI211) -3023
@@ -1092,10 +1073,6 @@
     <t>PF12(24B16HS111) -246/SANJAY</t>
   </si>
   <si>
-    <t>LF11F12(15B11CI211) -
-/3084ARJ</t>
-  </si>
-  <si>
     <t>LF1F2(15B11MA211)-3028/SHP</t>
   </si>
   <si>
@@ -1117,6 +1094,15 @@
     <t>TF7(15B11PH211)-116/URS</t>
   </si>
   <si>
+    <t>LF17F18(15B11MA211)-3084/NEA</t>
+  </si>
+  <si>
+    <t>TF25(24B11HS111) -127/SHV</t>
+  </si>
+  <si>
+    <t>TH1(15B11CI211) - 3045/JATIN</t>
+  </si>
+  <si>
     <t>TF13(24B11HS111) -116/SHV</t>
   </si>
   <si>
@@ -1126,15 +1112,12 @@
     <t>TF14(15B11PH211) -121/KAS</t>
   </si>
   <si>
-    <t>LF17F18(15B11PH211)-3084/BHT</t>
+    <t>TH1(24B11HS111) -126/DEV</t>
   </si>
   <si>
     <t>TH1(15B11MA211)-127/KKS</t>
   </si>
   <si>
-    <t>TH1(15B11CI211) - 3045/JATIN</t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -1264,7 +1247,7 @@
     <t>PKR</t>
   </si>
   <si>
-    <t>Pankaj Kumar Rana</t>
+    <t>Pankaj Singh Rana</t>
   </si>
   <si>
     <t>41</t>
@@ -1734,692 +1717,70 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="9">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
+  <borders count="1">
+    <border/>
   </borders>
-  <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -2443,77 +1804,19 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="0000FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2525,2321 +1828,3141 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="34.5" customWidth="1"/>
-    <col min="3" max="3" width="33.25" customWidth="1"/>
-    <col min="4" max="4" width="31.25" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="35.375" customWidth="1"/>
-    <col min="7" max="7" width="32.875" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="43.625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="43.14"/>
+    <col customWidth="1" min="2" max="2" width="55.29"/>
+    <col customWidth="1" min="3" max="3" width="65.29"/>
+    <col customWidth="1" min="4" max="4" width="40.57"/>
+    <col customWidth="1" min="5" max="5" width="70.57"/>
+    <col customWidth="1" min="6" max="6" width="72.71"/>
+    <col customWidth="1" min="7" max="7" width="82.57"/>
+    <col customWidth="1" min="8" max="8" width="63.57"/>
+    <col customWidth="1" min="9" max="9" width="72.86"/>
+    <col customWidth="1" min="10" max="26" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:9">
-      <c r="B2" t="s">
+    <row r="2">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
+    <row r="4">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
-      <c r="B5" t="s">
+    <row r="5">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" t="s">
+    <row r="6">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" t="s">
+    <row r="7">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" t="s">
+    <row r="8">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I8" t="s">
+      <c r="G8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
-      <c r="B9" t="s">
+    <row r="9">
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
-      <c r="B10" t="s">
+    <row r="10">
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" t="s">
+    <row r="11">
+      <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
-      <c r="B12" t="s">
+    <row r="12">
+      <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" t="s">
+    <row r="13">
+      <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F13" t="s">
+      <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I13" t="s">
+      <c r="G13" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" t="s">
+      <c r="H13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
+      <c r="I13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="14">
+      <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F14" t="s">
+      <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G14" t="s">
+      <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I14" t="s">
+      <c r="F14" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" t="s">
+      <c r="I14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="15">
+      <c r="B15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F15" t="s">
+      <c r="D15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" t="s">
+      <c r="H15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C16" t="s">
+      <c r="I15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="16">
+      <c r="B16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F16" t="s">
+      <c r="C16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G16" t="s">
+      <c r="D16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H16" t="s">
+      <c r="F16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I16" t="s">
+      <c r="G16" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" t="s">
+      <c r="H16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C17" t="s">
+      <c r="I16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="17">
+      <c r="B17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H17" t="s">
+      <c r="C17" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
+      <c r="F17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C18" t="s">
+      <c r="H17" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+    <row r="18">
+      <c r="B18" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="C18" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" t="s">
+      <c r="F18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C22" t="s">
+      <c r="H18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="19">
+      <c r="B19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H22" t="s">
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" t="s">
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="B22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F23" t="s">
+      <c r="C22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I23" t="s">
+      <c r="D22" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" t="s">
+      <c r="F22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I24" t="s">
+      <c r="H22" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" t="s">
+      <c r="I22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="B23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I25" t="s">
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="B24" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" t="s">
+      <c r="F24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D26" t="s">
+      <c r="I24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F26" t="s">
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="B25" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G26" t="s">
+      <c r="D25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I26" t="s">
+      <c r="F25" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" t="s">
+      <c r="G25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F27" t="s">
+      <c r="I25" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
-      <c r="B28" t="s">
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="B26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H28" t="s">
+      <c r="G26" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" t="s">
+      <c r="I26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="B27" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H29" t="s">
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="B28" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" t="s">
+      <c r="D28" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C30" t="s">
+      <c r="F28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D30" t="s">
+      <c r="H28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F30" t="s">
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="B29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G30" t="s">
+      <c r="D29" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H30" t="s">
+      <c r="F29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I30" t="s">
+      <c r="H29" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
-      <c r="B31" t="s">
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="B30" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C30" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G30" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I30" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
-      <c r="B32" t="s">
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="C31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I31" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I32" t="s">
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="C32" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" t="s">
+      <c r="D32" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F32" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G32" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H32" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I32" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
-      <c r="B34" t="s">
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="B33" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D33" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F33" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G33" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G34" t="s">
+      <c r="I33" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H34" t="s">
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="B34" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I34" t="s">
+      <c r="C34" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" t="s">
+      <c r="D34" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C35" t="s">
+      <c r="F34" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D35" t="s">
+      <c r="G34" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H34" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G35" t="s">
+      <c r="I34" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H35" t="s">
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="B35" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I35" t="s">
+      <c r="C35" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="36" spans="6:6">
-      <c r="F36" t="s">
+      <c r="D35" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="F35" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" t="s">
+      <c r="G35" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C39" t="s">
+      <c r="H35" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D39" t="s">
+      <c r="I35" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F39" t="s">
-        <v>79</v>
-      </c>
-      <c r="H39" t="s">
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="C36" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I39" t="s">
+      <c r="D36" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" t="s">
+      <c r="F36" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D40" t="s">
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="B40" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F40" t="s">
+      <c r="C40" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G40" t="s">
+      <c r="D40" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
-      <c r="B41" t="s">
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="B41" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D41" t="s">
+      <c r="C41" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F41" t="s">
+      <c r="D41" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42" t="s">
+      <c r="F41" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D42" t="s">
+      <c r="G41" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H41" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I41" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I42" t="s">
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="B42" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" t="s">
+      <c r="D42" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F42" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F43" t="s">
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="B43" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G43" t="s">
+      <c r="D43" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I43" t="s">
+      <c r="F43" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" t="s">
+      <c r="H43" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F44" t="s">
+      <c r="I43" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I44" t="s">
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="B44" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" t="s">
+      <c r="D44" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F44" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G44" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I44" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
-      <c r="B46" t="s">
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="B45" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F45" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F46" t="s">
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="B46" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H46" t="s">
+      <c r="D46" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" t="s">
+      <c r="F46" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D47" t="s">
+      <c r="H46" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F47" t="s">
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="B47" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H47" t="s">
+      <c r="D47" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" t="s">
+      <c r="F47" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D48" t="s">
+      <c r="H47" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F48" t="s">
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="B48" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G48" t="s">
+      <c r="D48" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H48" t="s">
+      <c r="F48" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" t="s">
+      <c r="H48" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D49" t="s">
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="B49" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
-      <c r="B50" t="s">
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="B50" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F50" t="s">
+      <c r="H50" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="51" spans="2:6">
-      <c r="B51" t="s">
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="B51" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F51" t="s">
+      <c r="C51" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" t="s">
+      <c r="D51" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C52" t="s">
+      <c r="F51" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F52" t="s">
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="B52" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+      <c r="D52" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" t="s">
+      <c r="F52" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C55" t="s">
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="B53" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D55" t="s">
+      <c r="C53" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G53" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G55" t="s">
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H55" t="s">
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="B55" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="I55" t="s">
+      <c r="C55" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56" t="s">
+      <c r="D55" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F55" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G55" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I56" t="s">
+      <c r="H55" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" t="s">
+      <c r="I55" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F57" t="s">
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="B56" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="I57" t="s">
+      <c r="E56" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="B58" t="s">
+      <c r="F56" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D58" t="s">
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="B57" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F57" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G58" t="s">
+      <c r="I57" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I58" t="s">
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="B58" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" t="s">
+      <c r="D58" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F58" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G58" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I59" t="s">
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="B59" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" t="s">
+      <c r="D59" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G59" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I60" t="s">
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="B60" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="B61" t="s">
+      <c r="F60" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D61" t="s">
+      <c r="I60" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F61" t="s">
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="B61" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H61" t="s">
+      <c r="D61" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I61" t="s">
+      <c r="F61" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="62" spans="2:9">
-      <c r="B62" t="s">
+      <c r="H61" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D62" t="s">
+      <c r="I61" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F62" t="s">
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="B62" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H62" t="s">
+      <c r="D62" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="I62" t="s">
+      <c r="F62" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="63" spans="2:9">
-      <c r="B63" t="s">
-        <v>169</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="H62" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D63" t="s">
+      <c r="I62" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F63" t="s">
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="B63" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G63" t="s">
+      <c r="D63" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H63" t="s">
+      <c r="F63" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="I63" t="s">
+      <c r="G63" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="64" spans="2:9">
-      <c r="B64" t="s">
+      <c r="H63" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C64" t="s">
+      <c r="I63" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D64" t="s">
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="B64" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F64" t="s">
+      <c r="C64" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G64" t="s">
+      <c r="D64" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="H64" t="s">
+      <c r="F64" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="I64" t="s">
+      <c r="G64" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" t="s">
+      <c r="I64" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C65" t="s">
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="C65" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="B66" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="66" spans="2:9">
-      <c r="B66" t="s">
+      <c r="C66" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D66" t="s">
+      <c r="F66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F66" t="s">
-        <v>111</v>
-      </c>
-      <c r="G66" t="s">
-        <v>110</v>
-      </c>
-      <c r="H66" t="s">
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="B67" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="I66" t="s">
+      <c r="C67" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="67" spans="2:7">
-      <c r="B67" t="s">
+      <c r="D67" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C67" t="s">
+      <c r="F67" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D67" t="s">
+      <c r="G67" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F67" t="s">
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="C68" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G67" t="s">
+      <c r="D68" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="68" spans="3:7">
-      <c r="C68" t="s">
+      <c r="F68" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D68" t="s">
+      <c r="G68" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F68" t="s">
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="C69" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G68" t="s">
+      <c r="D69" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="69" spans="3:7">
-      <c r="C69" t="s">
+      <c r="F69" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G69" t="s">
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="B70" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="70" spans="6:6">
-      <c r="F70" t="s">
+      <c r="D70" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
+      <c r="F70" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E72" t="s">
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="C71" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="2:9">
-      <c r="B73" t="s">
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C73" t="s">
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="B73" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="2:9">
-      <c r="B74" t="s">
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="B74" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="75" spans="2:9">
-      <c r="B75" t="s">
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="B75" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
-      <c r="B76" t="s">
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="B76" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
-      <c r="B77" t="s">
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="B77" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="78" spans="2:8">
-      <c r="B78" t="s">
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="B78" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D78" t="s">
+      <c r="F78" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="F78" t="s">
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="B79" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G78" t="s">
+      <c r="D79" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H78" t="s">
+      <c r="F79" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="79" spans="2:8">
-      <c r="B79" t="s">
+      <c r="G79" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D79" t="s">
+      <c r="H79" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F79" t="s">
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="D80" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G79" t="s">
+      <c r="F80" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="H79" t="s">
+      <c r="G80" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="80" spans="2:8">
-      <c r="B80" t="s">
+      <c r="H80" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="B81" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G80" t="s">
+      <c r="F81" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="H80" t="s">
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="B82" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81" t="s">
+      <c r="C82" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F82" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="82" spans="2:7">
-      <c r="B82" t="s">
+      <c r="G82" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C82" t="s">
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="B83" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D82" t="s">
+      <c r="C83" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="F82" t="s">
+      <c r="D83" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G82" t="s">
+      <c r="F83" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="83" spans="2:7">
-      <c r="B83" t="s">
+      <c r="G83" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C83" t="s">
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="B84" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D83" t="s">
+      <c r="C84" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F83" t="s">
+      <c r="D84" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G84" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="84" spans="2:4">
-      <c r="B84" t="s">
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="D85" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C84" t="s">
+    </row>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D84" t="s">
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="B88" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+      <c r="C88" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="88" spans="2:5">
-      <c r="B88" t="s">
+      <c r="D88" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C88" t="s">
+      <c r="E88" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D88" t="s">
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="B89" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E89" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="89" spans="2:5">
-      <c r="B89" t="s">
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="D90" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E89" t="s">
+    </row>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="B92" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="90" spans="4:4">
-      <c r="D90" t="s">
+      <c r="E92" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="91" spans="2:4">
-      <c r="B91" t="s">
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="B93" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D91" t="s">
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="B94" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="92" spans="2:5">
-      <c r="B92" t="s">
+      <c r="C94" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E92" t="s">
+      <c r="D94" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="93" spans="2:5">
-      <c r="B93" t="s">
+      <c r="E94" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E93" t="s">
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="B95" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="94" spans="2:5">
-      <c r="B94" t="s">
+      <c r="E95" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C94" t="s">
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="B96" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D94" t="s">
+      <c r="C96" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E96" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="95" spans="2:5">
-      <c r="B95" t="s">
-        <v>329</v>
-      </c>
-      <c r="C95" t="s">
-        <v>245</v>
-      </c>
-      <c r="D95" t="s">
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="B97" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E95" t="s">
+      <c r="C97" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="96" spans="2:4">
-      <c r="B96" t="s">
+      <c r="D97" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C96" t="s">
-        <v>174</v>
-      </c>
-      <c r="D96" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="97" spans="3:4">
-      <c r="C97" t="s">
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="C98" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D98" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="C99" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="98" spans="3:4">
-      <c r="C98" t="s">
+      <c r="D99" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D98" t="s">
+    </row>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="B103" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="99" spans="4:4">
-      <c r="D99" t="s">
+      <c r="C103" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" t="s">
+      <c r="D103" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="103" spans="2:9">
-      <c r="B103" t="s">
+      <c r="E103" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="H103" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C103" t="s">
+      <c r="I103" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D103" t="s">
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="B104" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E103" t="s">
-        <v>364</v>
-      </c>
-      <c r="F103" t="s">
-        <v>365</v>
-      </c>
-      <c r="G103" t="s">
-        <v>366</v>
-      </c>
-      <c r="H103" t="s">
+      <c r="C104" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="I103" t="s">
+      <c r="D104" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="104" spans="2:7">
-      <c r="B104" t="s">
+      <c r="E104" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C104" t="s">
+      <c r="F104" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D104" t="s">
+      <c r="G104" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E104" t="s">
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="B105" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="F104" t="s">
+      <c r="C105" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="G104" t="s">
+      <c r="D105" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="105" spans="2:7">
-      <c r="B105" t="s">
+      <c r="E105" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C105" t="s">
+      <c r="F105" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D105" t="s">
+      <c r="G105" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E105" t="s">
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="B106" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="F105" t="s">
+      <c r="C106" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G105" t="s">
+      <c r="D106" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="106" spans="2:9">
-      <c r="B106" t="s">
+      <c r="E106" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C106" t="s">
+      <c r="F106" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D106" t="s">
+      <c r="G106" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="E106" t="s">
+      <c r="H106" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="F106" t="s">
+      <c r="I106" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="G106" t="s">
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="B107" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="H106" t="s">
+      <c r="C107" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="I106" t="s">
+      <c r="D107" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="107" spans="2:9">
-      <c r="B107" t="s">
+      <c r="E107" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C107" t="s">
+      <c r="F107" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D107" t="s">
+      <c r="G107" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E107" t="s">
+      <c r="H107" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="F107" t="s">
+      <c r="I107" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G107" t="s">
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="B108" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="H107" t="s">
+      <c r="C108" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="I107" t="s">
+      <c r="D108" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="108" spans="2:9">
-      <c r="B108" t="s">
+      <c r="E108" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C108" t="s">
+      <c r="F108" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D108" t="s">
+      <c r="G108" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E108" t="s">
+      <c r="H108" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F108" t="s">
+      <c r="I108" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="G108" t="s">
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="B109" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="H108" t="s">
+      <c r="C109" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="I108" t="s">
+      <c r="D109" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="109" spans="2:9">
-      <c r="B109" t="s">
+      <c r="E109" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C109" t="s">
+      <c r="F109" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D109" t="s">
+      <c r="G109" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="E109" t="s">
+      <c r="H109" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="F109" t="s">
+      <c r="I109" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="G109" t="s">
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="B110" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="H109" t="s">
+      <c r="C110" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="I109" t="s">
+      <c r="D110" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="110" spans="2:9">
-      <c r="B110" t="s">
+      <c r="E110" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C110" t="s">
+      <c r="F110" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D110" t="s">
+      <c r="G110" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E110" t="s">
+      <c r="H110" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F110" t="s">
+      <c r="I110" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="G110" t="s">
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="B111" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="H110" t="s">
+      <c r="C111" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="I110" t="s">
+      <c r="D111" s="1" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="111" spans="2:9">
-      <c r="B111" t="s">
+      <c r="E111" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C111" t="s">
+      <c r="F111" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D111" t="s">
+      <c r="G111" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E111" t="s">
+      <c r="H111" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F111" t="s">
+      <c r="I111" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G111" t="s">
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="B112" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="H111" t="s">
+      <c r="C112" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="I111" t="s">
+      <c r="D112" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="112" spans="2:9">
-      <c r="B112" t="s">
+      <c r="E112" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C112" t="s">
+      <c r="F112" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D112" t="s">
+      <c r="G112" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="E112" t="s">
+      <c r="H112" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="F112" t="s">
+      <c r="I112" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="G112" t="s">
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="B113" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="H112" t="s">
+      <c r="C113" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="I112" t="s">
+      <c r="D113" s="1" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="113" spans="2:9">
-      <c r="B113" t="s">
+      <c r="E113" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C113" t="s">
+      <c r="F113" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D113" t="s">
+      <c r="G113" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E113" t="s">
+      <c r="H113" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="F113" t="s">
+      <c r="I113" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="G113" t="s">
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="B114" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H113" t="s">
+      <c r="C114" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="I113" t="s">
+      <c r="D114" s="1" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="114" spans="2:9">
-      <c r="B114" t="s">
+      <c r="E114" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C114" t="s">
+      <c r="F114" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D114" t="s">
+      <c r="H114" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E114" t="s">
+      <c r="I114" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="F114" t="s">
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="B115" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="H114" t="s">
+      <c r="C115" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="I114" t="s">
+      <c r="D115" s="1" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="115" spans="2:6">
-      <c r="B115" t="s">
+      <c r="E115" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C115" t="s">
+      <c r="F115" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D115" t="s">
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="B116" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E115" t="s">
+      <c r="C116" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="F115" t="s">
+      <c r="D116" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="116" spans="2:6">
-      <c r="B116" t="s">
+      <c r="E116" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C116" t="s">
+      <c r="F116" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D116" t="s">
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="B117" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="E116" t="s">
+      <c r="C117" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="F116" t="s">
+      <c r="D117" s="1" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="117" spans="2:7">
-      <c r="B117" t="s">
+      <c r="E117" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C117" t="s">
+      <c r="F117" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D117" t="s">
+      <c r="G117" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="E117" t="s">
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="B118" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="F117" t="s">
+      <c r="C118" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="G117" t="s">
+      <c r="D118" s="1" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="118" spans="2:7">
-      <c r="B118" t="s">
+      <c r="E118" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C118" t="s">
+      <c r="F118" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D118" t="s">
+      <c r="G118" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="E118" t="s">
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="B119" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="F118" t="s">
+      <c r="C119" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="G118" t="s">
+      <c r="D119" s="1" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="119" spans="2:7">
-      <c r="B119" t="s">
+      <c r="E119" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C119" t="s">
+      <c r="F119" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="B120" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D119" t="s">
+      <c r="C120" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="E119" t="s">
+      <c r="D120" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="F119" t="s">
-        <v>401</v>
-      </c>
-      <c r="G119" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6">
-      <c r="B120" t="s">
+      <c r="E120" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C120" t="s">
+      <c r="F120" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="B121" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="D120" t="s">
+      <c r="C121" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E120" t="s">
+      <c r="D121" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="F120" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6">
-      <c r="B121" t="s">
+      <c r="E121" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C121" t="s">
+      <c r="F121" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="B122" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="D121" t="s">
+      <c r="C122" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="E121" t="s">
+      <c r="D122" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="F121" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6">
-      <c r="B122" t="s">
+      <c r="E122" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C122" t="s">
+      <c r="F122" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="B123" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="D122" t="s">
+      <c r="C123" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="E122" t="s">
+      <c r="D123" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="F122" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7">
-      <c r="B123" t="s">
+      <c r="E123" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C123" t="s">
+      <c r="F123" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="D123" t="s">
+      <c r="G123" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="E123" t="s">
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="B124" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F123" t="s">
+      <c r="C124" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="G123" t="s">
+      <c r="D124" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="124" spans="2:7">
-      <c r="B124" t="s">
+      <c r="E124" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C124" t="s">
+      <c r="F124" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="D124" t="s">
+      <c r="G124" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="E124" t="s">
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="B125" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="F124" t="s">
+      <c r="C125" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G124" t="s">
+      <c r="D125" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="125" spans="2:6">
-      <c r="B125" t="s">
+      <c r="E125" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C125" t="s">
+      <c r="F125" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D125" t="s">
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="B126" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="E125" t="s">
+      <c r="C126" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="F125" t="s">
+      <c r="D126" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="126" spans="2:7">
-      <c r="B126" t="s">
+      <c r="E126" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C126" t="s">
+      <c r="F126" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="D126" t="s">
+      <c r="G126" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="E126" t="s">
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="B127" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="F126" t="s">
+      <c r="C127" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="G126" t="s">
+      <c r="D127" s="1" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="127" spans="2:5">
-      <c r="B127" t="s">
+      <c r="E127" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C127" t="s">
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="B128" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D127" t="s">
+      <c r="C128" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E127" t="s">
+      <c r="D128" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="128" spans="2:5">
-      <c r="B128" t="s">
+      <c r="E128" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C128" t="s">
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="B129" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="D128" t="s">
+      <c r="C129" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E128" t="s">
+      <c r="D129" s="1" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="129" spans="2:5">
-      <c r="B129" t="s">
+      <c r="E129" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C129" t="s">
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="B130" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="D129" t="s">
+      <c r="C130" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="E129" t="s">
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="B131" s="1" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="130" spans="2:5">
-      <c r="B130" t="s">
+      <c r="C131" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C130" t="s">
-        <v>469</v>
-      </c>
-      <c r="D130" t="s">
-        <v>470</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="D131" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="131" spans="2:5">
-      <c r="B131" t="s">
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="B132" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C132" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D131" t="s">
-        <v>528</v>
-      </c>
-      <c r="E131" t="s">
+      <c r="D132" s="1" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="132" spans="2:5">
-      <c r="B132" t="s">
+      <c r="E132" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C132" t="s">
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="B133" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D133" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E133" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="133" spans="2:5">
-      <c r="B133" t="s">
-        <v>530</v>
-      </c>
-      <c r="C133" t="s">
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="B134" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="D133" t="s">
+      <c r="C134" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="E133" t="s">
+      <c r="D134" s="1" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="134" spans="2:5">
-      <c r="B134" t="s">
+      <c r="E134" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C134" t="s">
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="B135" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="D134" t="s">
+      <c r="C135" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="E134" t="s">
+      <c r="D135" s="1" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="135" spans="2:5">
-      <c r="B135" t="s">
+      <c r="E135" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C135" t="s">
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="B136" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="D135" t="s">
+      <c r="C136" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="E135" t="s">
+      <c r="D136" s="1" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="136" spans="2:5">
-      <c r="B136" t="s">
+      <c r="E136" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C136" t="s">
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="B137" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D136" t="s">
+      <c r="C137" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="E136" t="s">
+      <c r="D137" s="1" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="137" spans="2:5">
-      <c r="B137" t="s">
+      <c r="E137" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C137" t="s">
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="B138" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D137" t="s">
+      <c r="C138" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="E137" t="s">
+      <c r="D138" s="1" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="138" spans="2:5">
-      <c r="B138" t="s">
+      <c r="E138" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C138" t="s">
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="B139" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D138" t="s">
+      <c r="C139" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="E138" t="s">
+      <c r="D139" s="1" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="139" spans="2:5">
-      <c r="B139" t="s">
+      <c r="E139" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C139" t="s">
-        <v>558</v>
-      </c>
-      <c r="D139" t="s">
-        <v>559</v>
-      </c>
-      <c r="E139" t="s">
-        <v>560</v>
-      </c>
-    </row>
+    </row>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="122">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
+  <mergeCells count="124">
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="F47:G47"/>
     <mergeCell ref="H47:I47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="F56:H56"/>
     <mergeCell ref="B57:D57"/>
-    <mergeCell ref="F57:H57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="G58:H58"/>
-    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="E44:E52"/>
     <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:H59"/>
     <mergeCell ref="B60:D60"/>
-    <mergeCell ref="F60:H60"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="F61:G61"/>
     <mergeCell ref="B62:C62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="B70:C70"/>
     <mergeCell ref="B75:D75"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="G77:H77"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="F81:G81"/>
+    <mergeCell ref="E60:E71"/>
+    <mergeCell ref="E73:E81"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A103:A139"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
     <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D85:E85"/>
     <mergeCell ref="B89:D89"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A20"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="A39:A53"/>
+    <mergeCell ref="A72:A86"/>
+    <mergeCell ref="A87:A102"/>
+    <mergeCell ref="A54:A71"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E9:E20"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="D91:E91"/>
     <mergeCell ref="B92:D92"/>
     <mergeCell ref="B93:C93"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="D93:I93"/>
     <mergeCell ref="C102:D102"/>
-    <mergeCell ref="A3:A20"/>
-    <mergeCell ref="A21:A37"/>
-    <mergeCell ref="A38:A53"/>
-    <mergeCell ref="A54:A71"/>
-    <mergeCell ref="A72:A86"/>
-    <mergeCell ref="A87:A102"/>
-    <mergeCell ref="A103:A139"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E8:E20"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E43:E51"/>
-    <mergeCell ref="E60:E71"/>
-    <mergeCell ref="E73:E81"/>
-    <mergeCell ref="E83:E86"/>
-    <mergeCell ref="F88:I102"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>